--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicen\git\algorithmicsLopezAmadoPabloUO271580\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8405E0CB-1EFC-4600-A8EF-E063EA8205F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F47498-5850-4639-B316-E9DA9DE3BFBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="4020" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7125" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Lab 0, 1.1, 1.2</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>López Amado, Pablo</t>
+  </si>
+  <si>
+    <t>Session 1 lacks some requested explanations</t>
   </si>
 </sst>
 </file>
@@ -284,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -300,10 +303,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,7 +860,7 @@
   <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -912,7 +918,9 @@
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4">
+        <v>6</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -922,11 +930,13 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4">
         <f>(B4+C4+D4+E4+F4+G4+H4+I4)/8</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8"/>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicen\git\algorithmicsLopezAmadoPabloUO271580\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F47498-5850-4639-B316-E9DA9DE3BFBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A83685-E452-4F07-9671-5FA963AE7323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="6150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Lab 0, 1.1, 1.2</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Session 1 lacks some requested explanations</t>
+  </si>
+  <si>
+    <t>Some textual explanations were expected. Insertion is O(n) in the best case</t>
+  </si>
+  <si>
+    <t>By division code: the code is OK not the comment and the document are not OK: they dont say the same</t>
   </si>
 </sst>
 </file>
@@ -860,7 +866,7 @@
   <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -921,8 +927,12 @@
       <c r="B4" s="4">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6.75</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -930,15 +940,19 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4">
         <f>(B4+C4+D4+E4+F4+G4+H4+I4)/8</f>
-        <v>0.75</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicen\git\algorithmicsLopezAmadoPabloUO271580\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicen\Documents\GitHub2\algorithmicsLopezAmadoPabloUO271580\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A83685-E452-4F07-9671-5FA963AE7323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08F2A41-DCB0-4814-A81D-186E78792594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="6150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Lab 0, 1.1, 1.2</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>By division code: the code is OK not the comment and the document are not OK: they dont say the same</t>
+  </si>
+  <si>
+    <t>Report was not included</t>
   </si>
 </sst>
 </file>
@@ -866,7 +869,7 @@
   <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D12"/>
+      <selection activeCell="E5" sqref="E5:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -933,14 +936,16 @@
       <c r="D4" s="4">
         <v>6.75</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4">
+        <v>4.75</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4">
         <f>(B4+C4+D4+E4+F4+G4+H4+I4)/8</f>
-        <v>2.375</v>
+        <v>2.96875</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -953,7 +958,9 @@
       <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicen\Documents\GitHub2\algorithmicsLopezAmadoPabloUO271580\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08F2A41-DCB0-4814-A81D-186E78792594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027F5F2B-D977-4394-8A47-76BC90D345DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Lab 0, 1.1, 1.2</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>By division code: the code is OK not the comment and the document are not OK: they dont say the same</t>
-  </si>
-  <si>
-    <t>Report was not included</t>
   </si>
 </sst>
 </file>
@@ -869,7 +866,7 @@
   <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E12"/>
+      <selection activeCell="F5" sqref="F5:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -937,7 +934,7 @@
         <v>6.75</v>
       </c>
       <c r="E4" s="4">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -945,7 +942,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4">
         <f>(B4+C4+D4+E4+F4+G4+H4+I4)/8</f>
-        <v>2.96875</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -958,9 +955,7 @@
       <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicen\Documents\GitHub2\algorithmicsLopezAmadoPabloUO271580\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027F5F2B-D977-4394-8A47-76BC90D345DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADA157D-1D7E-4133-A24B-5DAAC717DB59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6780" yWindow="3945" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Lab 0, 1.1, 1.2</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>By division code: the code is OK not the comment and the document are not OK: they dont say the same</t>
+  </si>
+  <si>
+    <t>Good but the complexity is linear O(n) since the number of rows is constant and we only change the number of columns of the table in a linear way. Table[3,12] = 2, not 3</t>
   </si>
 </sst>
 </file>
@@ -866,7 +869,7 @@
   <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F12"/>
+      <selection activeCell="E5" sqref="E5:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -936,13 +939,15 @@
       <c r="E4" s="4">
         <v>7</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <v>6.5</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4">
         <f>(B4+C4+D4+E4+F4+G4+H4+I4)/8</f>
-        <v>3.25</v>
+        <v>4.0625</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -956,7 +961,9 @@
         <v>18</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicen\Documents\GitHub2\algorithmicsLopezAmadoPabloUO271580\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADA157D-1D7E-4133-A24B-5DAAC717DB59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEFFB7E-1B34-44E5-855C-3E9B74CB7F9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="3945" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Final mark</t>
   </si>
   <si>
-    <t>Test mark</t>
-  </si>
-  <si>
     <t>Maximum possible marks in labs = 7</t>
   </si>
   <si>
@@ -196,13 +193,16 @@
   </si>
   <si>
     <t>Good but the complexity is linear O(n) since the number of rows is constant and we only change the number of columns of the table in a linear way. Table[3,12] = 2, not 3</t>
+  </si>
+  <si>
+    <t>Perfect, Pablo. About complexity, theoretically should be something like O(8^lengthofthelongestword * n^2) but since you prune a lot, emperically you may get something close to O(n^2).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -221,13 +221,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -296,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -307,10 +300,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -324,7 +314,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="11">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -340,22 +330,6 @@
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -525,20 +499,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla14515" displayName="Tabla14515" ref="A3:J4" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A3:J4" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Student" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Lab 0, 1.1, 1.2" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Lab 2 (Sorting)" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Lab 3 (D&amp;C)" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Lab 4 (Greedy)" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Lab 5 (Dynamic Prog.)" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Lab 6 (Backtracking)" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Lab 7 (Branch&amp;Bound)" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Test mark" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla14515" displayName="Tabla14515" ref="A3:I4" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A3:I4" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Student" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Lab 0, 1.1, 1.2" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Lab 2 (Sorting)" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Lab 3 (D&amp;C)" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Lab 4 (Greedy)" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Lab 5 (Dynamic Prog.)" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Lab 6 (Backtracking)" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Lab 7 (Branch&amp;Bound)" dataDxfId="1"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Final mark" dataDxfId="0">
-      <calculatedColumnFormula>(B4+C4+D4+E4+F4+G4+H4+I4)/8</calculatedColumnFormula>
+      <calculatedColumnFormula>(B4+C4+D4+E4+F4+G4+H4)/7*10/7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -866,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J136"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E12"/>
+      <selection activeCell="G5" sqref="G5:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -886,12 +859,12 @@
     <col min="10" max="10" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -916,16 +889,13 @@
       <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4">
         <v>6</v>
@@ -942,121 +912,124 @@
       <c r="F4" s="4">
         <v>6.5</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4">
+        <v>7</v>
+      </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
-        <f>(B4+C4+D4+E4+F4+G4+H4+I4)/8</f>
-        <v>4.0625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
+      <c r="I4" s="4">
+        <f>(B4+C4+D4+E4+F4+G4+H4)/7*10/7</f>
+        <v>8.0612244897959187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicen\Documents\GitHub2\algorithmicsLopezAmadoPabloUO271580\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEFFB7E-1B34-44E5-855C-3E9B74CB7F9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960B8D21-B6E2-4EC1-BF03-B98333307125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Lab 0, 1.1, 1.2</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Perfect, Pablo. About complexity, theoretically should be something like O(8^lengthofthelongestword * n^2) but since you prune a lot, emperically you may get something close to O(n^2).</t>
+  </si>
+  <si>
+    <t>To be perfect you had to make all the test cases work, but it is very good anyway. At least you were close to it</t>
   </si>
 </sst>
 </file>
@@ -218,6 +221,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -842,7 +846,7 @@
   <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G12"/>
+      <selection activeCell="I5" sqref="I5:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -915,10 +919,12 @@
       <c r="G4" s="4">
         <v>7</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <v>6</v>
+      </c>
       <c r="I4" s="4">
         <f>(B4+C4+D4+E4+F4+G4+H4)/7*10/7</f>
-        <v>8.0612244897959187</v>
+        <v>9.2857142857142865</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -938,7 +944,9 @@
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
